--- a/analysis/participant_extractedmetrics/participant320.xlsx
+++ b/analysis/participant_extractedmetrics/participant320.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="75">
   <si>
     <t>args</t>
   </si>
@@ -87,7 +87,13 @@
     <t>First fixation duration (ms)</t>
   </si>
   <si>
-    <t>DID not use gemini for task</t>
+    <t xml:space="preserve">post gemini </t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>pre gemini</t>
   </si>
   <si>
     <t>arg</t>
@@ -710,49 +716,49 @@
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>6</v>
@@ -761,43 +767,43 @@
         <v>7</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AF1" s="3" t="s">
         <v>10</v>
@@ -806,10 +812,10 @@
         <v>11</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ1" s="3" t="s">
         <v>12</v>
@@ -818,25 +824,25 @@
         <v>13</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AN1" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AO1" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AP1" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AS1" s="1"/>
     </row>
@@ -1889,7 +1895,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="7"/>
@@ -1939,49 +1945,49 @@
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>6</v>
@@ -1990,43 +1996,43 @@
         <v>7</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AB14" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AC14" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AE14" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AF14" s="3" t="s">
         <v>10</v>
@@ -2035,10 +2041,10 @@
         <v>11</v>
       </c>
       <c r="AH14" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AI14" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ14" s="3" t="s">
         <v>12</v>
@@ -2047,25 +2053,25 @@
         <v>13</v>
       </c>
       <c r="AL14" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AN14" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AO14" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AP14" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AQ14" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AR14" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AS14" s="1"/>
     </row>
@@ -2977,7 +2983,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
@@ -3027,49 +3033,49 @@
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
       <c r="A24" s="13"/>
       <c r="B24" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>0</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M24" s="14" t="s">
         <v>5</v>
       </c>
       <c r="N24" s="14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q24" s="14" t="s">
         <v>6</v>
@@ -3078,43 +3084,43 @@
         <v>7</v>
       </c>
       <c r="S24" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T24" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="U24" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V24" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W24" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X24" s="14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y24" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z24" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AA24" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AB24" s="14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AC24" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AD24" s="15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AE24" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AF24" s="14" t="s">
         <v>10</v>
@@ -3123,10 +3129,10 @@
         <v>11</v>
       </c>
       <c r="AH24" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AI24" s="15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ24" s="14" t="s">
         <v>12</v>
@@ -3135,25 +3141,25 @@
         <v>13</v>
       </c>
       <c r="AL24" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AM24" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AN24" s="14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AO24" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AP24" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AQ24" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AR24" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AS24" s="6"/>
     </row>
@@ -4152,7 +4158,7 @@
   </sheetPr>
   <dimension ref="A1:AR31"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4205,61 +4211,61 @@
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>6</v>
@@ -4268,22 +4274,22 @@
         <v>7</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AC1" s="3" t="s">
         <v>10</v>
@@ -4292,7 +4298,7 @@
         <v>11</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF1" s="3" t="s">
         <v>12</v>
@@ -4301,19 +4307,19 @@
         <v>13</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
@@ -5242,7 +5248,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -5291,61 +5297,61 @@
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U13" s="2" t="s">
         <v>6</v>
@@ -5354,22 +5360,22 @@
         <v>7</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AC13" s="3" t="s">
         <v>10</v>
@@ -5378,7 +5384,7 @@
         <v>11</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF13" s="3" t="s">
         <v>12</v>
@@ -5387,19 +5393,19 @@
         <v>13</v>
       </c>
       <c r="AH13" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AI13" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ13" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AL13" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
@@ -6236,7 +6242,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -6285,61 +6291,61 @@
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="13"/>
       <c r="B23" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>3</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J23" s="14" t="s">
         <v>4</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M23" s="14" t="s">
         <v>5</v>
       </c>
       <c r="N23" s="14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P23" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R23" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S23" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T23" s="14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U23" s="15" t="s">
         <v>6</v>
@@ -6348,22 +6354,22 @@
         <v>7</v>
       </c>
       <c r="W23" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X23" s="14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y23" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Z23" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="AB23" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AC23" s="14" t="s">
         <v>10</v>
@@ -6372,7 +6378,7 @@
         <v>11</v>
       </c>
       <c r="AE23" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF23" s="14" t="s">
         <v>12</v>
@@ -6381,19 +6387,19 @@
         <v>13</v>
       </c>
       <c r="AH23" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AI23" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ23" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AK23" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AL23" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AM23" s="13"/>
       <c r="AN23" s="13"/>
@@ -7305,7 +7311,7 @@
   </sheetPr>
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7748,8 +7754,12 @@
       <c r="P10" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
@@ -7767,9 +7777,11 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
